--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Bus_Charger_Schema.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Bus_Charger_Schema.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9798F34-1222-4DD6-8244-7C6F9925AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A419CA-BDEB-409D-A78B-571E903EE5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus_ChargerSchema" sheetId="15" r:id="rId1"/>
+    <sheet name="Steckerbelegung" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>UU</t>
+  </si>
+  <si>
+    <t>-12V B-Charger</t>
+  </si>
+  <si>
+    <t>-12V A-Charger</t>
+  </si>
+  <si>
+    <t>Accu C -</t>
+  </si>
+  <si>
+    <t>Accu A -</t>
+  </si>
+  <si>
+    <t>Accu B -</t>
+  </si>
+  <si>
+    <t>Von Autobatterie -</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>12V B-Charger</t>
+  </si>
+  <si>
+    <t>12V A-Charger</t>
+  </si>
+  <si>
+    <t>Accu C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accu A </t>
+  </si>
+  <si>
+    <t>Accu B</t>
+  </si>
+  <si>
+    <t>&lt;--</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t>&lt;--&gt;</t>
+  </si>
+  <si>
+    <t>Autobatterie</t>
+  </si>
+  <si>
+    <t>230V stark</t>
+  </si>
+  <si>
+    <t>230V Grid</t>
+  </si>
+  <si>
+    <t>Wechselrichter gross</t>
+  </si>
+  <si>
+    <t>Wechselrichter klein</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>230V Chargers
+A B C</t>
+  </si>
+  <si>
+    <t>12V Out</t>
+  </si>
+  <si>
+    <t>12V C-Charger</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +145,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -62,12 +200,458 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1929,8 +2513,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12747331" y="6074972"/>
-          <a:ext cx="552558" cy="800659"/>
+          <a:off x="12743001" y="6259699"/>
+          <a:ext cx="552558" cy="829523"/>
           <a:chOff x="14590058" y="2378262"/>
           <a:chExt cx="543033" cy="788248"/>
         </a:xfrm>
@@ -2407,8 +2991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8464335" y="1996067"/>
-          <a:ext cx="538389" cy="300510"/>
+          <a:off x="8460005" y="2053794"/>
+          <a:ext cx="538389" cy="312056"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -2645,8 +3229,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8473463" y="2636551"/>
-          <a:ext cx="532039" cy="300727"/>
+          <a:off x="8469133" y="2717369"/>
+          <a:ext cx="532039" cy="306500"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -2940,8 +3524,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13952899" y="532967"/>
-          <a:ext cx="268287" cy="175996"/>
+          <a:off x="13948569" y="544512"/>
+          <a:ext cx="268287" cy="181769"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3065,8 +3649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6688029" y="4653503"/>
-          <a:ext cx="268287" cy="172820"/>
+          <a:off x="6690915" y="4797821"/>
+          <a:ext cx="268287" cy="178593"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3190,8 +3774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8604214" y="7120442"/>
-          <a:ext cx="268287" cy="175997"/>
+          <a:off x="8599884" y="7339806"/>
+          <a:ext cx="268287" cy="181769"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3315,8 +3899,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3764757" y="7141477"/>
-          <a:ext cx="268287" cy="172822"/>
+          <a:off x="3764757" y="7360841"/>
+          <a:ext cx="268287" cy="178594"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3440,8 +4024,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8934414" y="4948561"/>
-          <a:ext cx="268287" cy="172821"/>
+          <a:off x="8930084" y="5098652"/>
+          <a:ext cx="268287" cy="178594"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3565,8 +4149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3928665" y="4641598"/>
-          <a:ext cx="268287" cy="175995"/>
+          <a:off x="3928665" y="4785916"/>
+          <a:ext cx="268287" cy="181768"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3690,8 +4274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1461293" y="4644773"/>
-          <a:ext cx="268287" cy="169645"/>
+          <a:off x="1461293" y="4789091"/>
+          <a:ext cx="268287" cy="175418"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3815,8 +4399,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3669902" y="1164691"/>
-          <a:ext cx="261937" cy="153771"/>
+          <a:off x="3669902" y="1199327"/>
+          <a:ext cx="261937" cy="159544"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -3940,8 +4524,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2419746" y="2475671"/>
-          <a:ext cx="261937" cy="163295"/>
+          <a:off x="2419746" y="2550716"/>
+          <a:ext cx="261937" cy="169068"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -4065,8 +4649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1291035" y="7156558"/>
-          <a:ext cx="268287" cy="166472"/>
+          <a:off x="1291035" y="7375922"/>
+          <a:ext cx="268287" cy="172244"/>
           <a:chOff x="13158788" y="520700"/>
           <a:chExt cx="268287" cy="169862"/>
         </a:xfrm>
@@ -5017,8 +5601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="1462402" y="1958425"/>
-          <a:ext cx="547266" cy="300943"/>
+          <a:off x="1453743" y="2019039"/>
+          <a:ext cx="564584" cy="300943"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -5684,8 +6268,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="1709052" y="5785899"/>
-          <a:ext cx="562543" cy="302984"/>
+          <a:off x="1700393" y="5967740"/>
+          <a:ext cx="579861" cy="302984"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -5922,8 +6506,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="4287380" y="5773425"/>
-          <a:ext cx="565718" cy="309334"/>
+          <a:off x="4278721" y="5955266"/>
+          <a:ext cx="583036" cy="309334"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -6624,8 +7208,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5640247" y="5070703"/>
-          <a:ext cx="552558" cy="793732"/>
+          <a:off x="5640247" y="5226567"/>
+          <a:ext cx="552558" cy="816823"/>
           <a:chOff x="14590058" y="2378262"/>
           <a:chExt cx="543033" cy="788248"/>
         </a:xfrm>
@@ -7393,8 +7977,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8409707" y="883877"/>
-          <a:ext cx="535214" cy="303687"/>
+          <a:off x="8405377" y="906968"/>
+          <a:ext cx="535214" cy="315232"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -7631,8 +8215,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16354662">
-          <a:off x="5816872" y="3062004"/>
-          <a:ext cx="500561" cy="273770"/>
+          <a:off x="5808213" y="3157254"/>
+          <a:ext cx="517879" cy="273770"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -7879,8 +8463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4564949" y="1430676"/>
-          <a:ext cx="539349" cy="303749"/>
+          <a:off x="4564949" y="1471085"/>
+          <a:ext cx="539349" cy="315295"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -8551,8 +9135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="153358" y="1629135"/>
-          <a:ext cx="1162369" cy="518013"/>
+          <a:off x="153358" y="1675317"/>
+          <a:ext cx="1162369" cy="535331"/>
           <a:chOff x="13903744" y="4047835"/>
           <a:chExt cx="1162369" cy="490394"/>
         </a:xfrm>
@@ -8857,8 +9441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="211526" y="656938"/>
-          <a:ext cx="958308" cy="502002"/>
+          <a:off x="211526" y="674256"/>
+          <a:ext cx="958308" cy="519320"/>
           <a:chOff x="13936512" y="3180170"/>
           <a:chExt cx="955133" cy="480621"/>
         </a:xfrm>
@@ -9163,8 +9747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="240701" y="2393850"/>
-          <a:ext cx="909991" cy="516596"/>
+          <a:off x="240701" y="2463123"/>
+          <a:ext cx="909991" cy="533914"/>
           <a:chOff x="13962512" y="2383269"/>
           <a:chExt cx="916341" cy="501565"/>
         </a:xfrm>
@@ -9538,8 +10122,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8676955" y="5306179"/>
-          <a:ext cx="555013" cy="317528"/>
+          <a:off x="8672625" y="5467815"/>
+          <a:ext cx="555013" cy="329074"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -9833,8 +10417,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="9567716" y="5801952"/>
-          <a:ext cx="543296" cy="305707"/>
+          <a:off x="9554727" y="5983793"/>
+          <a:ext cx="560614" cy="305707"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -10071,8 +10655,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="10217289" y="5789569"/>
-          <a:ext cx="546983" cy="305944"/>
+          <a:off x="10204300" y="5971410"/>
+          <a:ext cx="564301" cy="305944"/>
           <a:chOff x="12888233" y="2663137"/>
           <a:chExt cx="541564" cy="284096"/>
         </a:xfrm>
@@ -10459,6 +11043,1894 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485499</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Textfeld 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E1C765-77AD-8627-9E24-BD05772C0A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7045325" y="3061390"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-CH" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152262</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5108</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="399148" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Textfeld 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FE4FFC-F868-519F-350F-E7A0C25C87AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676262" y="2920586"/>
+          <a:ext cx="399148" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>330</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>639003</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Textfeld 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893902A8-03FF-3466-CC10-729EA8701220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2163003" y="4605131"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>39</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>38</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695738</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135696</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Textfeld 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EBBD90-18EA-CA14-6113-5879D7A1F0DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267738" y="5602218"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143979</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Textfeld 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AB1473-7D0F-9206-F68C-A767D2A0A538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4715979" y="4605131"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>37</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>36</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>753717</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162477</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Textfeld 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DA7942-5FD6-F715-CC78-EC9F0D2016F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4563717" y="5993434"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>45</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>44</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334479</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Textfeld 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693E4559-CB0F-28D3-08E7-8111831DEE25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8434870" y="5981977"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>41</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>159302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Textfeld 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294DCE54-5BC3-5B31-F231-353A038179BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971260" y="5990259"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>43</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>42</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549826</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179041</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Textfeld 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D49249-8945-A9C8-CBFC-7E11D5230843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5121826" y="5281128"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>163718</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179041</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Textfeld 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD86536-0737-EFDF-16AA-FDA5BDD3C687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5497718" y="4734476"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103258</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Textfeld 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB51CE95-362A-8FA2-C818-26B51B321DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10850217" y="285475"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248064</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55948</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Textfeld 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4B36C0-5E09-E1DA-A0C3-FC60AAFE5C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10643921" y="5317377"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161236</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Textfeld 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8961FF-F505-81D0-2C72-D587B52A91E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10899912" y="2712279"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25539</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="365741" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Textfeld 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E9AF8F-E0C0-70F1-9224-94400CC36FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="140804" y="207756"/>
+          <a:ext cx="365741" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UU</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134455</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="Textfeld 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FA6091-7F03-8397-62B0-1B5D80F061A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="173935" y="3414368"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>47</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>46</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>455544</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Textfeld 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1842C3-EB88-CF62-06BF-10A74286D3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10841935" y="1018762"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>42</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>23</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>500901</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53246</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="722634" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Textfeld 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ECB0D6-E47F-DFA7-3983-9529080F5FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896758" y="4407532"/>
+          <a:ext cx="722634" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>24/25/27</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352622</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4339</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="Textfeld 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097CC9C1-60F2-D720-FD66-5439EF617FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9986479" y="4902910"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>21</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>93850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137592</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Textfeld 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5FD2B8-B6C0-F352-9FB5-C0726D6DD7C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10489707" y="5943306"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483922</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Textfeld 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5145D91C-4A6C-C937-9492-A28C0B4F6A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9355779" y="5163162"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>824337</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Textfeld 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C201DE18-0F12-87B5-C986-6026449FDA95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7392051" y="4639839"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>34</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>35</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>143093</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Textfeld 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E849E320-11CA-EA9A-458B-1BEDE273034E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10900307" y="1957379"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>443336</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122268</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="525144" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Textfeld 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC4A9A1-710D-A2FD-AA55-7D8BF146CBCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1967336" y="1755125"/>
+          <a:ext cx="525144" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>31</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>32</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419258</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71389</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="722634" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Textfeld 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEF7958-F572-A372-3E03-03567A42C697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229258" y="1885675"/>
+          <a:ext cx="722634" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>30/55/28</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10730,8 +13202,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10745,4 +13217,582 @@
   <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EC62CA-DC65-4598-B6F6-B0FF0B46BDF9}">
+  <dimension ref="A1:AK14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:AF14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="32" width="4.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="56"/>
+      <c r="I1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="56"/>
+      <c r="M1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="56"/>
+      <c r="O1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="56"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="29"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="30"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>130</v>
+      </c>
+      <c r="C3" s="3">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>330</v>
+      </c>
+      <c r="G3" s="6">
+        <v>36</v>
+      </c>
+      <c r="H3" s="8">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4">
+        <v>39</v>
+      </c>
+      <c r="K3" s="6">
+        <v>40</v>
+      </c>
+      <c r="L3" s="8">
+        <v>41</v>
+      </c>
+      <c r="M3" s="3">
+        <v>42</v>
+      </c>
+      <c r="N3" s="4">
+        <v>43</v>
+      </c>
+      <c r="O3" s="6">
+        <v>44</v>
+      </c>
+      <c r="P3" s="8">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>46</v>
+      </c>
+      <c r="R3" s="4">
+        <v>47</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="3">
+        <v>50</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="3">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="1:37" ht="79" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="27"/>
+    </row>
+    <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="36"/>
+      <c r="P11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="36"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A13" s="38">
+        <v>7</v>
+      </c>
+      <c r="B13" s="32">
+        <v>8</v>
+      </c>
+      <c r="C13" s="39">
+        <v>9</v>
+      </c>
+      <c r="D13" s="50">
+        <v>10</v>
+      </c>
+      <c r="E13" s="32">
+        <v>11</v>
+      </c>
+      <c r="F13" s="32">
+        <v>12</v>
+      </c>
+      <c r="G13" s="32">
+        <v>13</v>
+      </c>
+      <c r="H13" s="32">
+        <v>14</v>
+      </c>
+      <c r="I13" s="32">
+        <v>15</v>
+      </c>
+      <c r="J13" s="32">
+        <v>16</v>
+      </c>
+      <c r="K13" s="43">
+        <v>17</v>
+      </c>
+      <c r="L13" s="38">
+        <v>18</v>
+      </c>
+      <c r="M13" s="39">
+        <v>19</v>
+      </c>
+      <c r="N13" s="38">
+        <v>20</v>
+      </c>
+      <c r="O13" s="39">
+        <v>21</v>
+      </c>
+      <c r="P13" s="50">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>23</v>
+      </c>
+      <c r="R13" s="38">
+        <v>24</v>
+      </c>
+      <c r="S13" s="32">
+        <v>25</v>
+      </c>
+      <c r="T13" s="39">
+        <v>27</v>
+      </c>
+      <c r="U13" s="38">
+        <v>28</v>
+      </c>
+      <c r="V13" s="32">
+        <v>55</v>
+      </c>
+      <c r="W13" s="39">
+        <v>30</v>
+      </c>
+      <c r="X13" s="38">
+        <v>31</v>
+      </c>
+      <c r="Y13" s="39">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+    </row>
+    <row r="14" spans="1:37" ht="109" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="60"/>
+      <c r="S14" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="62"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="62"/>
+      <c r="X14" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>